--- a/excel/2025_09_16_FinalV3.xlsx
+++ b/excel/2025_09_16_FinalV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matevass/Documents/Projects/KGEntityMatching-Public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC7556-E365-B045-A5B6-A237E8BE1D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A11EE9-5A73-2A42-9ADB-68707AD1DE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,6 +511,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -532,35 +538,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -868,7 +856,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E3" sqref="E3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -880,47 +868,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2867,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B36" t="s">
@@ -2936,7 +2924,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B37" t="s">
@@ -2993,7 +2981,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B38" t="s">
@@ -3050,7 +3038,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B39" t="s">
@@ -3107,7 +3095,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B40" t="s">
@@ -3347,7 +3335,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:S43">
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="0" priority="18">
       <formula>E3=MAX(E$3:E$43)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="19">
